--- a/state_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
+++ b/state_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U212"/>
+  <dimension ref="A1:U231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.92446185574651</v>
+        <v>1.93562540141611</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -813,10 +813,10 @@
         <v>630</v>
       </c>
       <c r="G5" t="n">
-        <v>4765.2161645404</v>
+        <v>4774.04144367744</v>
       </c>
       <c r="H5" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I5" t="n">
         <v>32695.75</v>
@@ -898,10 +898,10 @@
         <v>630</v>
       </c>
       <c r="G6" t="n">
-        <v>4765.2161645404</v>
+        <v>4774.04144367744</v>
       </c>
       <c r="H6" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I6" t="n">
         <v>32695.75</v>
@@ -983,10 +983,10 @@
         <v>630</v>
       </c>
       <c r="G7" t="n">
-        <v>4765.2161645404</v>
+        <v>4774.04144367744</v>
       </c>
       <c r="H7" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I7" t="n">
         <v>32695.75</v>
@@ -1068,10 +1068,10 @@
         <v>630</v>
       </c>
       <c r="G8" t="n">
-        <v>4765.2161645404</v>
+        <v>4774.04144367744</v>
       </c>
       <c r="H8" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I8" t="n">
         <v>32695.75</v>
@@ -1153,7 +1153,7 @@
         <v>0.01438</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0188552441401436</v>
+        <v>0.018865591208682</v>
       </c>
       <c r="H9" t="n">
         <v>0.071393845071416</v>
@@ -1234,7 +1234,7 @@
         <v>0.01438</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0188552441401436</v>
+        <v>0.018865591208682</v>
       </c>
       <c r="H10" t="n">
         <v>0.071393845071416</v>
@@ -1311,7 +1311,7 @@
         <v>0.288</v>
       </c>
       <c r="G11" t="n">
-        <v>0.426222222222222</v>
+        <v>0.426230555555556</v>
       </c>
       <c r="H11" t="n">
         <v>1.358</v>
@@ -1388,7 +1388,7 @@
         <v>0.288</v>
       </c>
       <c r="G12" t="n">
-        <v>0.426222222222222</v>
+        <v>0.426230555555556</v>
       </c>
       <c r="H12" t="n">
         <v>1.358</v>
@@ -1469,7 +1469,7 @@
         <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.09936016270154</v>
+        <v>2.13404750837847</v>
       </c>
       <c r="H13" t="n">
         <v>6</v>
@@ -1712,10 +1712,10 @@
         <v>770</v>
       </c>
       <c r="G16" t="n">
-        <v>4995.03331401945</v>
+        <v>5001.60533039809</v>
       </c>
       <c r="H16" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I16" t="n">
         <v>28579.15</v>
@@ -1797,10 +1797,10 @@
         <v>770</v>
       </c>
       <c r="G17" t="n">
-        <v>4995.03331401945</v>
+        <v>5001.60533039809</v>
       </c>
       <c r="H17" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I17" t="n">
         <v>28579.15</v>
@@ -1882,10 +1882,10 @@
         <v>770</v>
       </c>
       <c r="G18" t="n">
-        <v>4995.03331401945</v>
+        <v>5001.60533039809</v>
       </c>
       <c r="H18" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I18" t="n">
         <v>28579.15</v>
@@ -1967,10 +1967,10 @@
         <v>770</v>
       </c>
       <c r="G19" t="n">
-        <v>4995.03331401945</v>
+        <v>5001.60533039809</v>
       </c>
       <c r="H19" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I19" t="n">
         <v>28579.15</v>
@@ -2129,7 +2129,7 @@
         <v>0.01946</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0215721952024372</v>
+        <v>0.021579955503841</v>
       </c>
       <c r="H21" t="n">
         <v>0.071393845071416</v>
@@ -2210,7 +2210,7 @@
         <v>0.01946</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0215721952024372</v>
+        <v>0.021579955503841</v>
       </c>
       <c r="H22" t="n">
         <v>0.071393845071416</v>
@@ -2291,7 +2291,7 @@
         <v>0.243</v>
       </c>
       <c r="G23" t="n">
-        <v>0.395077569505076</v>
+        <v>0.395097634675557</v>
       </c>
       <c r="H23" t="n">
         <v>1.53</v>
@@ -2302,7 +2302,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00429</v>
+        <v>0.00448</v>
       </c>
       <c r="M23" t="n">
         <v>0.8716</v>
@@ -2372,7 +2372,7 @@
         <v>0.243</v>
       </c>
       <c r="G24" t="n">
-        <v>0.395077569505076</v>
+        <v>0.395097634675557</v>
       </c>
       <c r="H24" t="n">
         <v>1.53</v>
@@ -2383,7 +2383,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00429</v>
+        <v>0.00448</v>
       </c>
       <c r="M24" t="n">
         <v>0.8716</v>
@@ -2449,7 +2449,7 @@
         <v>0.2655</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4125625</v>
+        <v>0.412577083333333</v>
       </c>
       <c r="H25" t="n">
         <v>1.639</v>
@@ -2526,7 +2526,7 @@
         <v>0.2655</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4125625</v>
+        <v>0.412577083333333</v>
       </c>
       <c r="H26" t="n">
         <v>1.639</v>
@@ -2607,7 +2607,7 @@
         <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>2.24445752924696</v>
+        <v>2.27386636579914</v>
       </c>
       <c r="H27" t="n">
         <v>6.02</v>
@@ -2850,10 +2850,10 @@
         <v>637</v>
       </c>
       <c r="G30" t="n">
-        <v>4092.53501286295</v>
+        <v>4097.77034794424</v>
       </c>
       <c r="H30" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I30" t="n">
         <v>27550</v>
@@ -2935,10 +2935,10 @@
         <v>637</v>
       </c>
       <c r="G31" t="n">
-        <v>4092.53501286295</v>
+        <v>4097.77034794424</v>
       </c>
       <c r="H31" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I31" t="n">
         <v>27550</v>
@@ -3020,10 +3020,10 @@
         <v>637</v>
       </c>
       <c r="G32" t="n">
-        <v>4092.53501286295</v>
+        <v>4097.77034794424</v>
       </c>
       <c r="H32" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I32" t="n">
         <v>27550</v>
@@ -3105,10 +3105,10 @@
         <v>637</v>
       </c>
       <c r="G33" t="n">
-        <v>4092.53501286295</v>
+        <v>4097.77034794424</v>
       </c>
       <c r="H33" t="n">
-        <v>35100.5657589141</v>
+        <v>35409.4505287102</v>
       </c>
       <c r="I33" t="n">
         <v>27550</v>
@@ -3267,7 +3267,7 @@
         <v>0.01382</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0180966344864362</v>
+        <v>0.0181028427275593</v>
       </c>
       <c r="H35" t="n">
         <v>0.071393845071416</v>
@@ -3348,7 +3348,7 @@
         <v>0.01382</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0180966344864362</v>
+        <v>0.0181028427275593</v>
       </c>
       <c r="H36" t="n">
         <v>0.071393845071416</v>
@@ -3429,7 +3429,7 @@
         <v>0.2025</v>
       </c>
       <c r="G37" t="n">
-        <v>0.384256952823858</v>
+        <v>0.384192202353424</v>
       </c>
       <c r="H37" t="n">
         <v>2.5392</v>
@@ -3440,7 +3440,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.00242</v>
+        <v>0.00199</v>
       </c>
       <c r="M37" t="n">
         <v>0.8169999999999999</v>
@@ -3510,7 +3510,7 @@
         <v>0.2025</v>
       </c>
       <c r="G38" t="n">
-        <v>0.384256952823858</v>
+        <v>0.384192202353424</v>
       </c>
       <c r="H38" t="n">
         <v>2.5392</v>
@@ -3521,7 +3521,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.00242</v>
+        <v>0.00199</v>
       </c>
       <c r="M38" t="n">
         <v>0.8169999999999999</v>
@@ -3587,7 +3587,7 @@
         <v>0.155</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4022</v>
+        <v>0.402206666666667</v>
       </c>
       <c r="H39" t="n">
         <v>2.551</v>
@@ -3598,7 +3598,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.0175</v>
+        <v>0.01745</v>
       </c>
       <c r="M39" t="n">
         <v>0.8682</v>
@@ -3664,7 +3664,7 @@
         <v>0.155</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4022</v>
+        <v>0.402206666666667</v>
       </c>
       <c r="H40" t="n">
         <v>2.551</v>
@@ -3675,7 +3675,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.0175</v>
+        <v>0.01745</v>
       </c>
       <c r="M40" t="n">
         <v>0.8682</v>
@@ -4127,16 +4127,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.55</v>
+        <v>2.89673</v>
       </c>
       <c r="G46" t="n">
-        <v>2.68837571967599</v>
+        <v>2.7315175470235</v>
       </c>
       <c r="H46" t="n">
         <v>6.02</v>
       </c>
       <c r="I46" t="n">
-        <v>5.65</v>
+        <v>5.70524</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4.608</v>
       </c>
       <c r="N46" t="n">
-        <v>5.19667</v>
+        <v>5.494</v>
       </c>
       <c r="O46" t="n">
         <v>1809176.4</v>
@@ -4790,7 +4790,7 @@
         <v>0.01148</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0158336675277167</v>
+        <v>0.015836294925893</v>
       </c>
       <c r="H54" t="n">
         <v>0.07000000000000001</v>
@@ -4871,7 +4871,7 @@
         <v>0.01148</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0158336675277167</v>
+        <v>0.015836294925893</v>
       </c>
       <c r="H55" t="n">
         <v>0.07000000000000001</v>
@@ -4952,7 +4952,7 @@
         <v>0.08605</v>
       </c>
       <c r="G56" t="n">
-        <v>0.319089127353215</v>
+        <v>0.318985168627853</v>
       </c>
       <c r="H56" t="n">
         <v>2.5392</v>
@@ -4963,7 +4963,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.002</v>
+        <v>0.00102</v>
       </c>
       <c r="M56" t="n">
         <v>0.7533</v>
@@ -5033,7 +5033,7 @@
         <v>0.08605</v>
       </c>
       <c r="G57" t="n">
-        <v>0.319089127353215</v>
+        <v>0.318985168627853</v>
       </c>
       <c r="H57" t="n">
         <v>2.5392</v>
@@ -5044,7 +5044,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.002</v>
+        <v>0.00102</v>
       </c>
       <c r="M57" t="n">
         <v>0.7533</v>
@@ -5184,21 +5184,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.097</v>
+        <v>0.09685000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.34205</v>
+        <v>0.342006666666667</v>
       </c>
       <c r="H59" t="n">
         <v>2.551</v>
       </c>
       <c r="I59" t="n">
-        <v>1.312</v>
+        <v>1.31175</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.015</v>
+        <v>0.01495</v>
       </c>
       <c r="M59" t="n">
         <v>0.8025</v>
@@ -5261,21 +5261,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.097</v>
+        <v>0.09685000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.34205</v>
+        <v>0.342006666666667</v>
       </c>
       <c r="H60" t="n">
         <v>2.551</v>
       </c>
       <c r="I60" t="n">
-        <v>1.312</v>
+        <v>1.31175</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.015</v>
+        <v>0.01495</v>
       </c>
       <c r="M60" t="n">
         <v>0.8025</v>
@@ -5730,7 +5730,7 @@
         <v>3.4</v>
       </c>
       <c r="G66" t="n">
-        <v>2.94927351555126</v>
+        <v>2.98713133232036</v>
       </c>
       <c r="H66" t="n">
         <v>6.3</v>
@@ -5744,7 +5744,7 @@
         <v>4.35</v>
       </c>
       <c r="M66" t="n">
-        <v>5.01775</v>
+        <v>5.106</v>
       </c>
       <c r="N66" t="n">
         <v>6.0596</v>
@@ -6390,7 +6390,7 @@
         <v>0.01015</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0145898489384691</v>
+        <v>0.014596811191979</v>
       </c>
       <c r="H74" t="n">
         <v>0.07000000000000001</v>
@@ -6471,7 +6471,7 @@
         <v>0.01015</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0145898489384691</v>
+        <v>0.014596811191979</v>
       </c>
       <c r="H75" t="n">
         <v>0.07000000000000001</v>
@@ -6552,7 +6552,7 @@
         <v>0.08605</v>
       </c>
       <c r="G76" t="n">
-        <v>0.331497129046377</v>
+        <v>0.331388731878438</v>
       </c>
       <c r="H76" t="n">
         <v>2.5392</v>
@@ -6563,7 +6563,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M76" t="n">
         <v>0.8329</v>
@@ -6633,7 +6633,7 @@
         <v>0.08605</v>
       </c>
       <c r="G77" t="n">
-        <v>0.331497129046377</v>
+        <v>0.331388731878438</v>
       </c>
       <c r="H77" t="n">
         <v>2.5392</v>
@@ -6644,7 +6644,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="M77" t="n">
         <v>0.8329</v>
@@ -6784,16 +6784,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.097</v>
+        <v>0.09685000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>0.352256782739849</v>
+        <v>0.352218548107318</v>
       </c>
       <c r="H79" t="n">
         <v>2.551</v>
       </c>
       <c r="I79" t="n">
-        <v>1.5095</v>
+        <v>1.5092</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -6861,16 +6861,16 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.097</v>
+        <v>0.09685000000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.352256782739849</v>
+        <v>0.352218548107318</v>
       </c>
       <c r="H80" t="n">
         <v>2.551</v>
       </c>
       <c r="I80" t="n">
-        <v>1.5095</v>
+        <v>1.5092</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -7253,7 +7253,7 @@
         <v>3.6</v>
       </c>
       <c r="G85" t="n">
-        <v>2.95024912530736</v>
+        <v>2.98810694207646</v>
       </c>
       <c r="H85" t="n">
         <v>6.3</v>
@@ -7913,7 +7913,7 @@
         <v>0.00231</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0112916797846879</v>
+        <v>0.0113175955555604</v>
       </c>
       <c r="H93" t="n">
         <v>0.08908986681149431</v>
@@ -7994,7 +7994,7 @@
         <v>0.00231</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0112916797846879</v>
+        <v>0.0113175955555604</v>
       </c>
       <c r="H94" t="n">
         <v>0.08908986681149431</v>
@@ -8075,7 +8075,7 @@
         <v>0.0305</v>
       </c>
       <c r="G95" t="n">
-        <v>0.31882970480258</v>
+        <v>0.318737548057443</v>
       </c>
       <c r="H95" t="n">
         <v>2.5392</v>
@@ -8086,7 +8086,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00164</v>
+        <v>0.001</v>
       </c>
       <c r="M95" t="n">
         <v>0.8182</v>
@@ -8156,7 +8156,7 @@
         <v>0.0305</v>
       </c>
       <c r="G96" t="n">
-        <v>0.31882970480258</v>
+        <v>0.318737548057443</v>
       </c>
       <c r="H96" t="n">
         <v>2.5392</v>
@@ -8167,7 +8167,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00164</v>
+        <v>0.001</v>
       </c>
       <c r="M96" t="n">
         <v>0.8182</v>
@@ -8233,18 +8233,18 @@
         <v>0.045</v>
       </c>
       <c r="G97" t="n">
-        <v>0.336729130741226</v>
+        <v>0.336733585139773</v>
       </c>
       <c r="H97" t="n">
         <v>2.551</v>
       </c>
       <c r="I97" t="n">
-        <v>1.5095</v>
+        <v>1.5092</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.009809999999999999</v>
+        <v>0.01064</v>
       </c>
       <c r="M97" t="n">
         <v>0.8485</v>
@@ -8310,18 +8310,18 @@
         <v>0.045</v>
       </c>
       <c r="G98" t="n">
-        <v>0.336729130741226</v>
+        <v>0.336733585139773</v>
       </c>
       <c r="H98" t="n">
         <v>2.551</v>
       </c>
       <c r="I98" t="n">
-        <v>1.5095</v>
+        <v>1.5092</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.009809999999999999</v>
+        <v>0.01064</v>
       </c>
       <c r="M98" t="n">
         <v>0.8485</v>
@@ -8699,7 +8699,7 @@
         <v>2.4</v>
       </c>
       <c r="G103" t="n">
-        <v>2.76325573952155</v>
+        <v>2.77655900590912</v>
       </c>
       <c r="H103" t="n">
         <v>6.3</v>
@@ -9356,10 +9356,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00222</v>
+        <v>0.00228</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0066909211675261</v>
+        <v>0.0067473636142926</v>
       </c>
       <c r="H111" t="n">
         <v>0.08908986681149431</v>
@@ -9437,10 +9437,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00222</v>
+        <v>0.00228</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0066909211675261</v>
+        <v>0.0067473636142926</v>
       </c>
       <c r="H112" t="n">
         <v>0.08908986681149431</v>
@@ -9521,7 +9521,7 @@
         <v>0.0305</v>
       </c>
       <c r="G113" t="n">
-        <v>0.343885143905216</v>
+        <v>0.343797524822295</v>
       </c>
       <c r="H113" t="n">
         <v>2.5392</v>
@@ -9532,7 +9532,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.002</v>
+        <v>0.00101</v>
       </c>
       <c r="M113" t="n">
         <v>0.8882</v>
@@ -9602,7 +9602,7 @@
         <v>0.0305</v>
       </c>
       <c r="G114" t="n">
-        <v>0.343885143905216</v>
+        <v>0.343797524822295</v>
       </c>
       <c r="H114" t="n">
         <v>2.5392</v>
@@ -9613,7 +9613,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>0.002</v>
+        <v>0.00101</v>
       </c>
       <c r="M114" t="n">
         <v>0.8882</v>
@@ -9679,18 +9679,18 @@
         <v>0.035</v>
       </c>
       <c r="G115" t="n">
-        <v>0.356875349639522</v>
+        <v>0.356893597797322</v>
       </c>
       <c r="H115" t="n">
         <v>2.551</v>
       </c>
       <c r="I115" t="n">
-        <v>1.4235</v>
+        <v>1.42325</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.009809999999999999</v>
+        <v>0.01064</v>
       </c>
       <c r="M115" t="n">
         <v>0.9285</v>
@@ -9756,18 +9756,18 @@
         <v>0.035</v>
       </c>
       <c r="G116" t="n">
-        <v>0.356875349639522</v>
+        <v>0.356893597797322</v>
       </c>
       <c r="H116" t="n">
         <v>2.551</v>
       </c>
       <c r="I116" t="n">
-        <v>1.4235</v>
+        <v>1.42325</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.009809999999999999</v>
+        <v>0.01064</v>
       </c>
       <c r="M116" t="n">
         <v>0.9285</v>
@@ -10145,7 +10145,7 @@
         <v>2.1</v>
       </c>
       <c r="G121" t="n">
-        <v>2.4086857051252</v>
+        <v>2.4213702149366</v>
       </c>
       <c r="H121" t="n">
         <v>6.3</v>
@@ -10162,7 +10162,7 @@
         <v>4.638</v>
       </c>
       <c r="N121" t="n">
-        <v>5.26</v>
+        <v>5.61618</v>
       </c>
       <c r="O121" t="n">
         <v>1809176.4</v>
@@ -10802,10 +10802,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00302</v>
+        <v>0.00317</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0091391697736516</v>
+        <v>0.009262123739996001</v>
       </c>
       <c r="H129" t="n">
         <v>0.08908986681149431</v>
@@ -10816,13 +10816,13 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00204</v>
+        <v>0.00215</v>
       </c>
       <c r="M129" t="n">
         <v>0.01744</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02973</v>
+        <v>0.03</v>
       </c>
       <c r="O129" t="n">
         <v>1809176.4</v>
@@ -10883,10 +10883,10 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.00302</v>
+        <v>0.00317</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0091391697736516</v>
+        <v>0.009262123739996001</v>
       </c>
       <c r="H130" t="n">
         <v>0.08908986681149431</v>
@@ -10897,13 +10897,13 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.00204</v>
+        <v>0.00215</v>
       </c>
       <c r="M130" t="n">
         <v>0.01744</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02973</v>
+        <v>0.03</v>
       </c>
       <c r="O130" t="n">
         <v>1809176.4</v>
@@ -10967,7 +10967,7 @@
         <v>0.05245</v>
       </c>
       <c r="G131" t="n">
-        <v>0.319180546216308</v>
+        <v>0.319166907833423</v>
       </c>
       <c r="H131" t="n">
         <v>1.5172</v>
@@ -10978,7 +10978,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.00181</v>
+        <v>0.0015</v>
       </c>
       <c r="M131" t="n">
         <v>0.8882</v>
@@ -11048,7 +11048,7 @@
         <v>0.05245</v>
       </c>
       <c r="G132" t="n">
-        <v>0.319180546216308</v>
+        <v>0.319166907833423</v>
       </c>
       <c r="H132" t="n">
         <v>1.5172</v>
@@ -11059,7 +11059,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.00181</v>
+        <v>0.0015</v>
       </c>
       <c r="M132" t="n">
         <v>0.8882</v>
@@ -11122,13 +11122,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.0585</v>
+        <v>0.0583</v>
       </c>
       <c r="G133" t="n">
-        <v>0.333342016306189</v>
+        <v>0.333365264463989</v>
       </c>
       <c r="H133" t="n">
-        <v>1.537</v>
+        <v>1.5369</v>
       </c>
       <c r="I133" t="n">
         <v>1.335</v>
@@ -11136,7 +11136,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.00894</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="M133" t="n">
         <v>0.9285</v>
@@ -11199,13 +11199,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.0585</v>
+        <v>0.0583</v>
       </c>
       <c r="G134" t="n">
-        <v>0.333342016306189</v>
+        <v>0.333365264463989</v>
       </c>
       <c r="H134" t="n">
-        <v>1.537</v>
+        <v>1.5369</v>
       </c>
       <c r="I134" t="n">
         <v>1.335</v>
@@ -11213,7 +11213,7 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>0.00894</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="M134" t="n">
         <v>0.9285</v>
@@ -12248,27 +12248,27 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.00545</v>
+        <v>0.00558</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0120831673985946</v>
+        <v>0.0123583739550916</v>
       </c>
       <c r="H147" t="n">
         <v>0.08908986681149431</v>
       </c>
       <c r="I147" t="n">
-        <v>0.04136</v>
+        <v>0.04202</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00378</v>
+        <v>0.00397</v>
       </c>
       <c r="M147" t="n">
-        <v>0.02493</v>
+        <v>0.02539</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0329</v>
+        <v>0.03424</v>
       </c>
       <c r="O147" t="n">
         <v>1809176.4</v>
@@ -12329,27 +12329,27 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.00545</v>
+        <v>0.00558</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0120831673985946</v>
+        <v>0.0123583739550916</v>
       </c>
       <c r="H148" t="n">
         <v>0.08908986681149431</v>
       </c>
       <c r="I148" t="n">
-        <v>0.04136</v>
+        <v>0.04202</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>0.00378</v>
+        <v>0.00397</v>
       </c>
       <c r="M148" t="n">
-        <v>0.02493</v>
+        <v>0.02539</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0329</v>
+        <v>0.03424</v>
       </c>
       <c r="O148" t="n">
         <v>1809176.4</v>
@@ -12413,7 +12413,7 @@
         <v>0.076</v>
       </c>
       <c r="G149" t="n">
-        <v>0.346172372600702</v>
+        <v>0.346236461303088</v>
       </c>
       <c r="H149" t="n">
         <v>1.74</v>
@@ -12424,7 +12424,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.00172</v>
+        <v>0.00219</v>
       </c>
       <c r="M149" t="n">
         <v>0.90826</v>
@@ -12494,7 +12494,7 @@
         <v>0.076</v>
       </c>
       <c r="G150" t="n">
-        <v>0.346172372600702</v>
+        <v>0.346236461303088</v>
       </c>
       <c r="H150" t="n">
         <v>1.74</v>
@@ -12505,7 +12505,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00172</v>
+        <v>0.00219</v>
       </c>
       <c r="M150" t="n">
         <v>0.90826</v>
@@ -12571,7 +12571,7 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>0.361325349639522</v>
+        <v>0.361390264463989</v>
       </c>
       <c r="H151" t="n">
         <v>1.755</v>
@@ -12582,10 +12582,10 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.00987</v>
+        <v>0.01064</v>
       </c>
       <c r="M151" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.96735</v>
       </c>
       <c r="N151" t="n">
         <v>1.2515</v>
@@ -12648,7 +12648,7 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>0.361325349639522</v>
+        <v>0.361390264463989</v>
       </c>
       <c r="H152" t="n">
         <v>1.755</v>
@@ -12659,10 +12659,10 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
-        <v>0.00987</v>
+        <v>0.01064</v>
       </c>
       <c r="M152" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.96735</v>
       </c>
       <c r="N152" t="n">
         <v>1.2515</v>
@@ -13694,10 +13694,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.00605</v>
+        <v>0.00633</v>
       </c>
       <c r="G165" t="n">
-        <v>0.133940630725822</v>
+        <v>0.134234816646889</v>
       </c>
       <c r="H165" t="n">
         <v>6.42699254796942</v>
@@ -13708,13 +13708,13 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00599</v>
+        <v>0.00627</v>
       </c>
       <c r="M165" t="n">
-        <v>0.02574</v>
+        <v>0.02644</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03742</v>
+        <v>0.03863</v>
       </c>
       <c r="O165" t="n">
         <v>1809176.4</v>
@@ -13775,10 +13775,10 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.00605</v>
+        <v>0.00633</v>
       </c>
       <c r="G166" t="n">
-        <v>0.133940630725822</v>
+        <v>0.134234816646889</v>
       </c>
       <c r="H166" t="n">
         <v>6.42699254796942</v>
@@ -13789,13 +13789,13 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.00599</v>
+        <v>0.00627</v>
       </c>
       <c r="M166" t="n">
-        <v>0.02574</v>
+        <v>0.02644</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03742</v>
+        <v>0.03863</v>
       </c>
       <c r="O166" t="n">
         <v>1809176.4</v>
@@ -13859,7 +13859,7 @@
         <v>0.051</v>
       </c>
       <c r="G167" t="n">
-        <v>0.315565953302465</v>
+        <v>0.315651816953881</v>
       </c>
       <c r="H167" t="n">
         <v>1.74</v>
@@ -13870,7 +13870,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.00283</v>
+        <v>0.00334</v>
       </c>
       <c r="M167" t="n">
         <v>0.72921</v>
@@ -13940,7 +13940,7 @@
         <v>0.051</v>
       </c>
       <c r="G168" t="n">
-        <v>0.315565953302465</v>
+        <v>0.315651816953881</v>
       </c>
       <c r="H168" t="n">
         <v>1.74</v>
@@ -13951,7 +13951,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.00283</v>
+        <v>0.00334</v>
       </c>
       <c r="M168" t="n">
         <v>0.72921</v>
@@ -14017,7 +14017,7 @@
         <v>0.068</v>
       </c>
       <c r="G169" t="n">
-        <v>0.357764644304752</v>
+        <v>0.357837338667802</v>
       </c>
       <c r="H169" t="n">
         <v>1.9</v>
@@ -14028,7 +14028,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>0.01239</v>
+        <v>0.013</v>
       </c>
       <c r="M169" t="n">
         <v>0.86465</v>
@@ -14094,7 +14094,7 @@
         <v>0.068</v>
       </c>
       <c r="G170" t="n">
-        <v>0.357764644304752</v>
+        <v>0.357837338667802</v>
       </c>
       <c r="H170" t="n">
         <v>1.9</v>
@@ -14105,7 +14105,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.01239</v>
+        <v>0.013</v>
       </c>
       <c r="M170" t="n">
         <v>0.86465</v>
@@ -15136,10 +15136,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00902</v>
+        <v>0.009480000000000001</v>
       </c>
       <c r="G183" t="n">
-        <v>0.135459734345407</v>
+        <v>0.135733029535193</v>
       </c>
       <c r="H183" t="n">
         <v>6.42699254796942</v>
@@ -15150,10 +15150,10 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.00891</v>
+        <v>0.00903</v>
       </c>
       <c r="M183" t="n">
-        <v>0.03004</v>
+        <v>0.03073</v>
       </c>
       <c r="N183" t="n">
         <v>0.04028</v>
@@ -15217,10 +15217,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.00902</v>
+        <v>0.009480000000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>0.135459734345407</v>
+        <v>0.135733029535193</v>
       </c>
       <c r="H184" t="n">
         <v>6.42699254796942</v>
@@ -15231,10 +15231,10 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00891</v>
+        <v>0.00903</v>
       </c>
       <c r="M184" t="n">
-        <v>0.03004</v>
+        <v>0.03073</v>
       </c>
       <c r="N184" t="n">
         <v>0.04028</v>
@@ -15301,7 +15301,7 @@
         <v>0.025</v>
       </c>
       <c r="G185" t="n">
-        <v>0.260243751971791</v>
+        <v>0.260387488725739</v>
       </c>
       <c r="H185" t="n">
         <v>1.74</v>
@@ -15312,7 +15312,7 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>0.00621</v>
+        <v>0.00679</v>
       </c>
       <c r="M185" t="n">
         <v>0.61999</v>
@@ -15382,7 +15382,7 @@
         <v>0.025</v>
       </c>
       <c r="G186" t="n">
-        <v>0.260243751971791</v>
+        <v>0.260387488725739</v>
       </c>
       <c r="H186" t="n">
         <v>1.74</v>
@@ -15393,7 +15393,7 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>0.00621</v>
+        <v>0.00679</v>
       </c>
       <c r="M186" t="n">
         <v>0.61999</v>
@@ -15536,7 +15536,7 @@
         <v>0.033</v>
       </c>
       <c r="G188" t="n">
-        <v>0.300606324303352</v>
+        <v>0.300627131516152</v>
       </c>
       <c r="H188" t="n">
         <v>1.9</v>
@@ -15547,7 +15547,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.01389</v>
+        <v>0.0145</v>
       </c>
       <c r="M188" t="n">
         <v>0.6788</v>
@@ -15613,7 +15613,7 @@
         <v>0.033</v>
       </c>
       <c r="G189" t="n">
-        <v>0.300606324303352</v>
+        <v>0.300627131516152</v>
       </c>
       <c r="H189" t="n">
         <v>1.9</v>
@@ -15624,7 +15624,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.01389</v>
+        <v>0.0145</v>
       </c>
       <c r="M189" t="n">
         <v>0.6788</v>
@@ -16655,10 +16655,10 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.01343</v>
+        <v>0.01365</v>
       </c>
       <c r="G202" t="n">
-        <v>0.146063933810915</v>
+        <v>0.146307261589858</v>
       </c>
       <c r="H202" t="n">
         <v>6.42699254796942</v>
@@ -16669,10 +16669,10 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.01078</v>
+        <v>0.01131</v>
       </c>
       <c r="M202" t="n">
-        <v>0.03389</v>
+        <v>0.03522</v>
       </c>
       <c r="N202" t="n">
         <v>0.04736</v>
@@ -16736,10 +16736,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.01343</v>
+        <v>0.01365</v>
       </c>
       <c r="G203" t="n">
-        <v>0.146063933810915</v>
+        <v>0.146307261589858</v>
       </c>
       <c r="H203" t="n">
         <v>6.42699254796942</v>
@@ -16750,10 +16750,10 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
-        <v>0.01078</v>
+        <v>0.01131</v>
       </c>
       <c r="M203" t="n">
-        <v>0.03389</v>
+        <v>0.03522</v>
       </c>
       <c r="N203" t="n">
         <v>0.04736</v>
@@ -16820,7 +16820,7 @@
         <v>0.0215</v>
       </c>
       <c r="G204" t="n">
-        <v>0.251262802224411</v>
+        <v>0.251454038776378</v>
       </c>
       <c r="H204" t="n">
         <v>2.07</v>
@@ -16831,7 +16831,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.004</v>
+        <v>0.00542</v>
       </c>
       <c r="M204" t="n">
         <v>0.6192800000000001</v>
@@ -16901,7 +16901,7 @@
         <v>0.0215</v>
       </c>
       <c r="G205" t="n">
-        <v>0.251262802224411</v>
+        <v>0.251454038776378</v>
       </c>
       <c r="H205" t="n">
         <v>2.07</v>
@@ -16912,7 +16912,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.004</v>
+        <v>0.00542</v>
       </c>
       <c r="M205" t="n">
         <v>0.6192800000000001</v>
@@ -17491,6 +17491,1525 @@
         </is>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.3554</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.42495</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.184568965517241</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.04044</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.184568965517241</v>
+      </c>
+      <c r="H215" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.04044</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>135</v>
+      </c>
+      <c r="G216" t="n">
+        <v>749.293951431137</v>
+      </c>
+      <c r="H216" t="n">
+        <v>26030</v>
+      </c>
+      <c r="I216" t="n">
+        <v>2036.8</v>
+      </c>
+      <c r="J216" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K216" t="n">
+        <v>22.4137931034483</v>
+      </c>
+      <c r="L216" t="n">
+        <v>160</v>
+      </c>
+      <c r="M216" t="n">
+        <v>478.56</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1317.4</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>135</v>
+      </c>
+      <c r="G217" t="n">
+        <v>749.293951431137</v>
+      </c>
+      <c r="H217" t="n">
+        <v>26030</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2036.8</v>
+      </c>
+      <c r="J217" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K217" t="n">
+        <v>22.4137931034483</v>
+      </c>
+      <c r="L217" t="n">
+        <v>160</v>
+      </c>
+      <c r="M217" t="n">
+        <v>478.56</v>
+      </c>
+      <c r="N217" t="n">
+        <v>1317.4</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>135</v>
+      </c>
+      <c r="G218" t="n">
+        <v>749.293951431137</v>
+      </c>
+      <c r="H218" t="n">
+        <v>26030</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2036.8</v>
+      </c>
+      <c r="J218" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K218" t="n">
+        <v>22.4137931034483</v>
+      </c>
+      <c r="L218" t="n">
+        <v>160</v>
+      </c>
+      <c r="M218" t="n">
+        <v>478.56</v>
+      </c>
+      <c r="N218" t="n">
+        <v>1317.4</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>135</v>
+      </c>
+      <c r="G219" t="n">
+        <v>749.293951431137</v>
+      </c>
+      <c r="H219" t="n">
+        <v>26030</v>
+      </c>
+      <c r="I219" t="n">
+        <v>2036.8</v>
+      </c>
+      <c r="J219" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K219" t="n">
+        <v>22.4137931034483</v>
+      </c>
+      <c r="L219" t="n">
+        <v>160</v>
+      </c>
+      <c r="M219" t="n">
+        <v>478.56</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1317.4</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>91</v>
+      </c>
+      <c r="G220" t="n">
+        <v>89.532</v>
+      </c>
+      <c r="H220" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="I220" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="M220" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="N220" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.01264</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.14211725249604</v>
+      </c>
+      <c r="H221" t="n">
+        <v>6.42699254796942</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.01178</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.03294</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.04234</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.01264</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.14211725249604</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6.42699254796942</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.01178</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.03294</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.04234</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.255902732158542</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.0136</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.60092</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.92416</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.255902732158542</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.0136</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.60092</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.92416</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="G225" t="n">
+        <v>4.8556</v>
+      </c>
+      <c r="H225" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="I225" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>4.392</v>
+      </c>
+      <c r="M225" t="n">
+        <v>6.0101</v>
+      </c>
+      <c r="N225" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.307534482758621</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.64596</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1.02436</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.307534482758621</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.64596</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1.02436</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.03068965517241</v>
+      </c>
+      <c r="H228" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I228" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1.6662</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1.03068965517241</v>
+      </c>
+      <c r="H229" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="N229" t="n">
+        <v>1.6662</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.279344827586207</v>
+      </c>
+      <c r="H230" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.6422</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.06764000000000001</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.17584</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Porewa at Onepuhi Road</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.279344827586207</v>
+      </c>
+      <c r="H231" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.6422</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.06764000000000001</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.17584</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1809176.4</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5560800.59</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
+++ b/state_results/Rivers/PorewaatOnepuhiRoad_e55a860199.xlsx
@@ -570,7 +570,7 @@
         <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.93562540141611</v>
+        <v>1.91312992680408</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
@@ -813,13 +813,13 @@
         <v>630</v>
       </c>
       <c r="G5" t="n">
-        <v>4774.04144367744</v>
+        <v>4529.77829174051</v>
       </c>
       <c r="H5" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I5" t="n">
-        <v>32695.75</v>
+        <v>27377.56005</v>
       </c>
       <c r="J5" t="n">
         <v>51.4285714285714</v>
@@ -834,7 +834,7 @@
         <v>3608.9</v>
       </c>
       <c r="N5" t="n">
-        <v>26543.8</v>
+        <v>26060.96815</v>
       </c>
       <c r="O5" t="n">
         <v>1809176.4</v>
@@ -898,13 +898,13 @@
         <v>630</v>
       </c>
       <c r="G6" t="n">
-        <v>4774.04144367744</v>
+        <v>4529.77829174051</v>
       </c>
       <c r="H6" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I6" t="n">
-        <v>32695.75</v>
+        <v>27377.56005</v>
       </c>
       <c r="J6" t="n">
         <v>51.4285714285714</v>
@@ -919,7 +919,7 @@
         <v>3608.9</v>
       </c>
       <c r="N6" t="n">
-        <v>26543.8</v>
+        <v>26060.96815</v>
       </c>
       <c r="O6" t="n">
         <v>1809176.4</v>
@@ -983,13 +983,13 @@
         <v>630</v>
       </c>
       <c r="G7" t="n">
-        <v>4774.04144367744</v>
+        <v>4529.77829174051</v>
       </c>
       <c r="H7" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I7" t="n">
-        <v>32695.75</v>
+        <v>27377.56005</v>
       </c>
       <c r="J7" t="n">
         <v>51.4285714285714</v>
@@ -1004,7 +1004,7 @@
         <v>3608.9</v>
       </c>
       <c r="N7" t="n">
-        <v>26543.8</v>
+        <v>26060.96815</v>
       </c>
       <c r="O7" t="n">
         <v>1809176.4</v>
@@ -1068,13 +1068,13 @@
         <v>630</v>
       </c>
       <c r="G8" t="n">
-        <v>4774.04144367744</v>
+        <v>4529.77829174051</v>
       </c>
       <c r="H8" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I8" t="n">
-        <v>32695.75</v>
+        <v>27377.56005</v>
       </c>
       <c r="J8" t="n">
         <v>51.4285714285714</v>
@@ -1089,7 +1089,7 @@
         <v>3608.9</v>
       </c>
       <c r="N8" t="n">
-        <v>26543.8</v>
+        <v>26060.96815</v>
       </c>
       <c r="O8" t="n">
         <v>1809176.4</v>
@@ -1469,7 +1469,7 @@
         <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.13404750837847</v>
+        <v>2.12671382316562</v>
       </c>
       <c r="H13" t="n">
         <v>6</v>
@@ -1712,13 +1712,13 @@
         <v>770</v>
       </c>
       <c r="G16" t="n">
-        <v>5001.60533039809</v>
+        <v>4819.70723853017</v>
       </c>
       <c r="H16" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I16" t="n">
-        <v>28579.15</v>
+        <v>27550</v>
       </c>
       <c r="J16" t="n">
         <v>57.4468085106383</v>
@@ -1733,7 +1733,7 @@
         <v>9038.9</v>
       </c>
       <c r="N16" t="n">
-        <v>26677.96</v>
+        <v>26167.53776</v>
       </c>
       <c r="O16" t="n">
         <v>1809176.4</v>
@@ -1797,13 +1797,13 @@
         <v>770</v>
       </c>
       <c r="G17" t="n">
-        <v>5001.60533039809</v>
+        <v>4819.70723853017</v>
       </c>
       <c r="H17" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I17" t="n">
-        <v>28579.15</v>
+        <v>27550</v>
       </c>
       <c r="J17" t="n">
         <v>57.4468085106383</v>
@@ -1818,7 +1818,7 @@
         <v>9038.9</v>
       </c>
       <c r="N17" t="n">
-        <v>26677.96</v>
+        <v>26167.53776</v>
       </c>
       <c r="O17" t="n">
         <v>1809176.4</v>
@@ -1882,13 +1882,13 @@
         <v>770</v>
       </c>
       <c r="G18" t="n">
-        <v>5001.60533039809</v>
+        <v>4819.70723853017</v>
       </c>
       <c r="H18" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I18" t="n">
-        <v>28579.15</v>
+        <v>27550</v>
       </c>
       <c r="J18" t="n">
         <v>57.4468085106383</v>
@@ -1903,7 +1903,7 @@
         <v>9038.9</v>
       </c>
       <c r="N18" t="n">
-        <v>26677.96</v>
+        <v>26167.53776</v>
       </c>
       <c r="O18" t="n">
         <v>1809176.4</v>
@@ -1967,13 +1967,13 @@
         <v>770</v>
       </c>
       <c r="G19" t="n">
-        <v>5001.60533039809</v>
+        <v>4819.70723853017</v>
       </c>
       <c r="H19" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I19" t="n">
-        <v>28579.15</v>
+        <v>27550</v>
       </c>
       <c r="J19" t="n">
         <v>57.4468085106383</v>
@@ -1988,7 +1988,7 @@
         <v>9038.9</v>
       </c>
       <c r="N19" t="n">
-        <v>26677.96</v>
+        <v>26167.53776</v>
       </c>
       <c r="O19" t="n">
         <v>1809176.4</v>
@@ -2607,7 +2607,7 @@
         <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>2.27386636579914</v>
+        <v>2.26764867616215</v>
       </c>
       <c r="H27" t="n">
         <v>6.02</v>
@@ -2850,13 +2850,13 @@
         <v>637</v>
       </c>
       <c r="G30" t="n">
-        <v>4097.77034794424</v>
+        <v>3952.86847815115</v>
       </c>
       <c r="H30" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I30" t="n">
-        <v>27550</v>
+        <v>27239.60809</v>
       </c>
       <c r="J30" t="n">
         <v>52.5423728813559</v>
@@ -2935,13 +2935,13 @@
         <v>637</v>
       </c>
       <c r="G31" t="n">
-        <v>4097.77034794424</v>
+        <v>3952.86847815115</v>
       </c>
       <c r="H31" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I31" t="n">
-        <v>27550</v>
+        <v>27239.60809</v>
       </c>
       <c r="J31" t="n">
         <v>52.5423728813559</v>
@@ -3020,13 +3020,13 @@
         <v>637</v>
       </c>
       <c r="G32" t="n">
-        <v>4097.77034794424</v>
+        <v>3952.86847815115</v>
       </c>
       <c r="H32" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I32" t="n">
-        <v>27550</v>
+        <v>27239.60809</v>
       </c>
       <c r="J32" t="n">
         <v>52.5423728813559</v>
@@ -3105,13 +3105,13 @@
         <v>637</v>
       </c>
       <c r="G33" t="n">
-        <v>4097.77034794424</v>
+        <v>3952.86847815115</v>
       </c>
       <c r="H33" t="n">
-        <v>35409.4505287102</v>
+        <v>34411</v>
       </c>
       <c r="I33" t="n">
-        <v>27550</v>
+        <v>27239.60809</v>
       </c>
       <c r="J33" t="n">
         <v>52.5423728813559</v>
@@ -4127,16 +4127,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.89673</v>
+        <v>2.57351</v>
       </c>
       <c r="G46" t="n">
-        <v>2.7315175470235</v>
+        <v>2.71107970823952</v>
       </c>
       <c r="H46" t="n">
         <v>6.02</v>
       </c>
       <c r="I46" t="n">
-        <v>5.70524</v>
+        <v>5.65</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -4144,10 +4144,10 @@
         <v>4.1</v>
       </c>
       <c r="M46" t="n">
-        <v>4.608</v>
+        <v>4.60731</v>
       </c>
       <c r="N46" t="n">
-        <v>5.494</v>
+        <v>5.196</v>
       </c>
       <c r="O46" t="n">
         <v>1809176.4</v>
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G66" t="n">
-        <v>2.98713133232036</v>
+        <v>2.98220681540518</v>
       </c>
       <c r="H66" t="n">
         <v>6.3</v>
@@ -5744,7 +5744,7 @@
         <v>4.35</v>
       </c>
       <c r="M66" t="n">
-        <v>5.106</v>
+        <v>4.98386</v>
       </c>
       <c r="N66" t="n">
         <v>6.0596</v>
@@ -7250,10 +7250,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.6</v>
+        <v>3.60481</v>
       </c>
       <c r="G85" t="n">
-        <v>2.98810694207646</v>
+        <v>2.98318242516128</v>
       </c>
       <c r="H85" t="n">
         <v>6.3</v>
@@ -7267,7 +7267,7 @@
         <v>4.35</v>
       </c>
       <c r="M85" t="n">
-        <v>4.906</v>
+        <v>4.8878</v>
       </c>
       <c r="N85" t="n">
         <v>6.0596</v>
@@ -8699,7 +8699,7 @@
         <v>2.4</v>
       </c>
       <c r="G103" t="n">
-        <v>2.77655900590912</v>
+        <v>2.76160165997756</v>
       </c>
       <c r="H103" t="n">
         <v>6.3</v>
@@ -10145,7 +10145,7 @@
         <v>2.1</v>
       </c>
       <c r="G121" t="n">
-        <v>2.4213702149366</v>
+        <v>2.40710855951349</v>
       </c>
       <c r="H121" t="n">
         <v>6.3</v>
@@ -10162,7 +10162,7 @@
         <v>4.638</v>
       </c>
       <c r="N121" t="n">
-        <v>5.61618</v>
+        <v>5.26</v>
       </c>
       <c r="O121" t="n">
         <v>1809176.4</v>
